--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Sema6d</t>
+  </si>
+  <si>
+    <t>Kdr</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema6d</t>
-  </si>
-  <si>
-    <t>Kdr</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H2">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I2">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J2">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N2">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O2">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P2">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q2">
-        <v>8815.901211106147</v>
+        <v>7877.157245493688</v>
       </c>
       <c r="R2">
-        <v>35263.60484442459</v>
+        <v>31508.62898197475</v>
       </c>
       <c r="S2">
-        <v>0.2328931268561402</v>
+        <v>0.4658529239845712</v>
       </c>
       <c r="T2">
-        <v>0.1600322800333966</v>
+        <v>0.4349451309830788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H3">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I3">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J3">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.115296</v>
       </c>
       <c r="O3">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P3">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q3">
-        <v>2.369002630688</v>
+        <v>2.367891715296</v>
       </c>
       <c r="R3">
-        <v>14.214015784128</v>
+        <v>14.207350291776</v>
       </c>
       <c r="S3">
-        <v>6.258287348958671E-05</v>
+        <v>0.0001400364680901262</v>
       </c>
       <c r="T3">
-        <v>6.450563872866044E-05</v>
+        <v>0.0001961182708747523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H4">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I4">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J4">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N4">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O4">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P4">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q4">
-        <v>195.2209517893143</v>
+        <v>119.200641604048</v>
       </c>
       <c r="R4">
-        <v>1171.325710735886</v>
+        <v>715.203849624288</v>
       </c>
       <c r="S4">
-        <v>0.00515722860332966</v>
+        <v>0.007049493326269436</v>
       </c>
       <c r="T4">
-        <v>0.00531567674314045</v>
+        <v>0.009872674315102555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H5">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I5">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J5">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N5">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O5">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P5">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q5">
-        <v>26.363784063664</v>
+        <v>19.9400548271595</v>
       </c>
       <c r="R5">
-        <v>105.455136254656</v>
+        <v>79.760219308638</v>
       </c>
       <c r="S5">
-        <v>0.0006964624443172949</v>
+        <v>0.001179249386059797</v>
       </c>
       <c r="T5">
-        <v>0.0004785734745644801</v>
+        <v>0.001101010109144407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H6">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I6">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J6">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N6">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O6">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P6">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q6">
-        <v>6423.457266923014</v>
+        <v>37.499669525912</v>
       </c>
       <c r="R6">
-        <v>38540.74360153808</v>
+        <v>224.998017155472</v>
       </c>
       <c r="S6">
-        <v>0.1696909949757472</v>
+        <v>0.002217720194311846</v>
       </c>
       <c r="T6">
-        <v>0.1749044971422384</v>
+        <v>0.003105872746751498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H7">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I7">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J7">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N7">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O7">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P7">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q7">
-        <v>316.2558514330387</v>
+        <v>177.535790731969</v>
       </c>
       <c r="R7">
-        <v>1897.535108598232</v>
+        <v>1065.214744391814</v>
       </c>
       <c r="S7">
-        <v>0.008354655112741428</v>
+        <v>0.01049941808280066</v>
       </c>
       <c r="T7">
-        <v>0.008611339402540004</v>
+        <v>0.01470422488993893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>37.053596</v>
       </c>
       <c r="I8">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J8">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N8">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O8">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P8">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q8">
-        <v>1766.457792749015</v>
+        <v>1579.10049633376</v>
       </c>
       <c r="R8">
-        <v>10598.74675649409</v>
+        <v>9474.602978002564</v>
       </c>
       <c r="S8">
-        <v>0.04666520971156563</v>
+        <v>0.09338757124639141</v>
       </c>
       <c r="T8">
-        <v>0.04809892852478717</v>
+        <v>0.1307874244746564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>37.053596</v>
       </c>
       <c r="I9">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J9">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.115296</v>
       </c>
       <c r="O9">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P9">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q9">
         <v>0.4746812671573333</v>
@@ -1013,10 +1013,10 @@
         <v>4.272131404416</v>
       </c>
       <c r="S9">
-        <v>1.253984157955818E-05</v>
+        <v>2.80725202473835E-05</v>
       </c>
       <c r="T9">
-        <v>1.9387664201298E-05</v>
+        <v>5.897250414588446E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>37.053596</v>
       </c>
       <c r="I10">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J10">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N10">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O10">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P10">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q10">
-        <v>39.11676904474356</v>
+        <v>23.89564997295644</v>
       </c>
       <c r="R10">
-        <v>352.050921402692</v>
+        <v>215.060849756608</v>
       </c>
       <c r="S10">
-        <v>0.001033363060359968</v>
+        <v>0.001413182200568846</v>
       </c>
       <c r="T10">
-        <v>0.001597667393577279</v>
+        <v>0.002968700082768807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>37.053596</v>
       </c>
       <c r="I11">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J11">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N11">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O11">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P11">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q11">
-        <v>5.282558264938667</v>
+        <v>3.997298707284667</v>
       </c>
       <c r="R11">
-        <v>31.695349589632</v>
+        <v>23.983792243708</v>
       </c>
       <c r="S11">
-        <v>0.0001395514176782555</v>
+        <v>0.0002363991517236243</v>
       </c>
       <c r="T11">
-        <v>0.0001438389263849284</v>
+        <v>0.0003310722807037458</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>37.053596</v>
       </c>
       <c r="I12">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J12">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N12">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O12">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P12">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q12">
-        <v>1287.079547948196</v>
+        <v>7.517400619950223</v>
       </c>
       <c r="R12">
-        <v>11583.71593153376</v>
+        <v>67.65660557955199</v>
       </c>
       <c r="S12">
-        <v>0.03400128622773352</v>
+        <v>0.0004445770155941273</v>
       </c>
       <c r="T12">
-        <v>0.05256888738292512</v>
+        <v>0.0009339318188837443</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>37.053596</v>
       </c>
       <c r="I13">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J13">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N13">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O13">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P13">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q13">
-        <v>63.36874698216712</v>
+        <v>35.58985132894711</v>
       </c>
       <c r="R13">
-        <v>570.3187228395039</v>
+        <v>320.308661960524</v>
       </c>
       <c r="S13">
-        <v>0.001674037092321361</v>
+        <v>0.002104774068748083</v>
       </c>
       <c r="T13">
-        <v>0.00258820406944785</v>
+        <v>0.00442154093759948</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H14">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I14">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J14">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N14">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O14">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P14">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q14">
-        <v>79.6414944459715</v>
+        <v>6694.76924790772</v>
       </c>
       <c r="R14">
-        <v>477.848966675829</v>
+        <v>26779.07699163088</v>
       </c>
       <c r="S14">
-        <v>0.002103920657102166</v>
+        <v>0.3959268213572822</v>
       </c>
       <c r="T14">
-        <v>0.002168560474350543</v>
+        <v>0.3696583928292795</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H15">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I15">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J15">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.115296</v>
       </c>
       <c r="O15">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P15">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q15">
-        <v>0.021401205088</v>
+        <v>2.01246314424</v>
       </c>
       <c r="R15">
-        <v>0.192610845792</v>
+        <v>12.07477886544</v>
       </c>
       <c r="S15">
-        <v>5.653640452725174E-07</v>
+        <v>0.0001190165196577374</v>
       </c>
       <c r="T15">
-        <v>8.741010156858139E-07</v>
+        <v>0.0001666802537877787</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H16">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I16">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J16">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N16">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O16">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P16">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q16">
-        <v>1.763596026697667</v>
+        <v>101.30822133812</v>
       </c>
       <c r="R16">
-        <v>15.872364240279</v>
+        <v>607.84932802872</v>
       </c>
       <c r="S16">
-        <v>4.658960931314128E-05</v>
+        <v>0.005991340487843908</v>
       </c>
       <c r="T16">
-        <v>7.203150812569309E-05</v>
+        <v>0.008390752442725243</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H17">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I17">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J17">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N17">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O17">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P17">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q17">
-        <v>0.238166366864</v>
+        <v>16.94698502239875</v>
       </c>
       <c r="R17">
-        <v>1.428998201184</v>
+        <v>67.787940089595</v>
       </c>
       <c r="S17">
-        <v>6.29173451048279E-06</v>
+        <v>0.001002240056833142</v>
       </c>
       <c r="T17">
-        <v>6.485038648431166E-06</v>
+        <v>0.0009357447605292196</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H18">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I18">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J18">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N18">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O18">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P18">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q18">
-        <v>58.02852414034667</v>
+        <v>31.87084204678</v>
       </c>
       <c r="R18">
-        <v>522.25671726312</v>
+        <v>191.22505228068</v>
       </c>
       <c r="S18">
-        <v>0.001532962326854009</v>
+        <v>0.001884832877474488</v>
       </c>
       <c r="T18">
-        <v>0.002370090454311233</v>
+        <v>0.002639670721917071</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H19">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I19">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J19">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N19">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O19">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P19">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q19">
-        <v>2.857006678305333</v>
+        <v>150.8870668889225</v>
       </c>
       <c r="R19">
-        <v>25.713060104748</v>
+        <v>905.3224013335349</v>
       </c>
       <c r="S19">
-        <v>7.547466819627822E-05</v>
+        <v>0.008923419846908837</v>
       </c>
       <c r="T19">
-        <v>0.000116690271835586</v>
+        <v>0.01249707090255157</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H20">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I20">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J20">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N20">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O20">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P20">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q20">
-        <v>4167.808314250831</v>
+        <v>22.640697169696</v>
       </c>
       <c r="R20">
-        <v>16671.23325700332</v>
+        <v>135.844183018176</v>
       </c>
       <c r="S20">
-        <v>0.1101026301451834</v>
+        <v>0.001338964635190681</v>
       </c>
       <c r="T20">
-        <v>0.0756569125833047</v>
+        <v>0.001875193173588438</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H21">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I21">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J21">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.115296</v>
       </c>
       <c r="O21">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P21">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q21">
-        <v>1.1199704516</v>
+        <v>0.006805846016</v>
       </c>
       <c r="R21">
-        <v>6.7198227096</v>
+        <v>0.061252614144</v>
       </c>
       <c r="S21">
-        <v>2.958669955727421E-05</v>
+        <v>4.024958710270913E-07</v>
       </c>
       <c r="T21">
-        <v>3.049570667496609E-05</v>
+        <v>8.455311177506E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H22">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I22">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J22">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N22">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O22">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P22">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q22">
-        <v>92.29272044909584</v>
+        <v>0.3426090840746666</v>
       </c>
       <c r="R22">
-        <v>553.756322694575</v>
+        <v>3.083481756672</v>
       </c>
       <c r="S22">
-        <v>0.00243813306623392</v>
+        <v>2.026180748025124E-05</v>
       </c>
       <c r="T22">
-        <v>0.002513041060172084</v>
+        <v>4.2564383785371E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H23">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I23">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J23">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N23">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O23">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P23">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q23">
-        <v>12.4637510998</v>
+        <v>0.057312140512</v>
       </c>
       <c r="R23">
-        <v>49.85500439920001</v>
+        <v>0.3438728430719999</v>
       </c>
       <c r="S23">
-        <v>0.0003292598109348447</v>
+        <v>3.389424306922856E-06</v>
       </c>
       <c r="T23">
-        <v>0.0002262505509654506</v>
+        <v>4.746820906013948E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H24">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I24">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J24">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N24">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O24">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P24">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q24">
-        <v>3036.755739684334</v>
+        <v>0.1077823680853333</v>
       </c>
       <c r="R24">
-        <v>18220.534438106</v>
+        <v>0.9700413127679999</v>
       </c>
       <c r="S24">
-        <v>0.08022316979033806</v>
+        <v>6.374219754881507E-06</v>
       </c>
       <c r="T24">
-        <v>0.08268790676453336</v>
+        <v>1.339045078991668E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H25">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I25">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J25">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N25">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O25">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P25">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q25">
-        <v>149.5132188383167</v>
+        <v>0.5102772420906666</v>
       </c>
       <c r="R25">
-        <v>897.0793130299</v>
+        <v>4.592495178815999</v>
       </c>
       <c r="S25">
-        <v>0.003949749459274276</v>
+        <v>3.01776564644193E-05</v>
       </c>
       <c r="T25">
-        <v>0.004071099607324069</v>
+        <v>6.339480585562734E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H26">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I26">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J26">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N26">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O26">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P26">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q26">
-        <v>6183.870997399187</v>
+        <v>3.224717416268667</v>
       </c>
       <c r="R26">
-        <v>37103.22598439513</v>
+        <v>19.348304497612</v>
       </c>
       <c r="S26">
-        <v>0.163361750338692</v>
+        <v>0.0001907089055829276</v>
       </c>
       <c r="T26">
-        <v>0.168380795924666</v>
+        <v>0.0002670840054268498</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H27">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I27">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J27">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.115296</v>
       </c>
       <c r="O27">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P27">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q27">
-        <v>1.661725365322667</v>
+        <v>0.0009693575253333334</v>
       </c>
       <c r="R27">
-        <v>14.955528287904</v>
+        <v>0.008724217728</v>
       </c>
       <c r="S27">
-        <v>4.38984520174313E-05</v>
+        <v>5.732753879215972E-08</v>
       </c>
       <c r="T27">
-        <v>6.787074950437591E-05</v>
+        <v>1.204291060902911E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H28">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I28">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J28">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N28">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O28">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P28">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q28">
-        <v>136.9367864891414</v>
+        <v>0.04879785600711111</v>
       </c>
       <c r="R28">
-        <v>1232.431078402273</v>
+        <v>0.439180704064</v>
       </c>
       <c r="S28">
-        <v>0.003617512903492064</v>
+        <v>2.885891851161853E-06</v>
       </c>
       <c r="T28">
-        <v>0.005592983369989094</v>
+        <v>6.062450669105101E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H29">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I29">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J29">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N29">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O29">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P29">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q29">
-        <v>18.49274801850133</v>
+        <v>0.008162975560666667</v>
       </c>
       <c r="R29">
-        <v>110.956488111008</v>
+        <v>0.048977853364</v>
       </c>
       <c r="S29">
-        <v>0.000488530191872588</v>
+        <v>4.827561409322648E-07</v>
       </c>
       <c r="T29">
-        <v>0.0005035395517628289</v>
+        <v>6.760903135094104E-07</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H30">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I30">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J30">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N30">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O30">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P30">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q30">
-        <v>4505.702836814605</v>
+        <v>0.01535145657955556</v>
       </c>
       <c r="R30">
-        <v>40551.32553133144</v>
+        <v>0.138163109216</v>
       </c>
       <c r="S30">
-        <v>0.1190289225369701</v>
+        <v>9.078809413255442E-07</v>
       </c>
       <c r="T30">
-        <v>0.1840288623861862</v>
+        <v>1.907203632038714E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H31">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I31">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J31">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N31">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O31">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P31">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q31">
-        <v>221.8361277654529</v>
+        <v>0.07267885336577777</v>
       </c>
       <c r="R31">
-        <v>1996.525149889076</v>
+        <v>0.6541096802919999</v>
       </c>
       <c r="S31">
-        <v>0.005860332166593341</v>
+        <v>4.298207500131159E-06</v>
       </c>
       <c r="T31">
-        <v>0.009060573168579056</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.9433796666666666</v>
-      </c>
-      <c r="H32">
-        <v>2.830139</v>
-      </c>
-      <c r="I32">
-        <v>0.006379681861815685</v>
-      </c>
-      <c r="J32">
-        <v>0.008021150332118549</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>143.0191385</v>
-      </c>
-      <c r="N32">
-        <v>286.038277</v>
-      </c>
-      <c r="O32">
-        <v>0.5586909079605606</v>
-      </c>
-      <c r="P32">
-        <v>0.4580112546679992</v>
-      </c>
-      <c r="Q32">
-        <v>134.9213472050838</v>
-      </c>
-      <c r="R32">
-        <v>809.5280832305029</v>
-      </c>
-      <c r="S32">
-        <v>0.003564270251877325</v>
-      </c>
-      <c r="T32">
-        <v>0.003673777127494256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.9433796666666666</v>
-      </c>
-      <c r="H33">
-        <v>2.830139</v>
-      </c>
-      <c r="I33">
-        <v>0.006379681861815685</v>
-      </c>
-      <c r="J33">
-        <v>0.008021150332118549</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M33">
-        <v>0.038432</v>
-      </c>
-      <c r="N33">
-        <v>0.115296</v>
-      </c>
-      <c r="O33">
-        <v>0.0001501310188268283</v>
-      </c>
-      <c r="P33">
-        <v>0.000184614682244788</v>
-      </c>
-      <c r="Q33">
-        <v>0.03625596734933333</v>
-      </c>
-      <c r="R33">
-        <v>0.326303706144</v>
-      </c>
-      <c r="S33">
-        <v>9.577881377054258E-07</v>
-      </c>
-      <c r="T33">
-        <v>1.480822119801741E-06</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.9433796666666666</v>
-      </c>
-      <c r="H34">
-        <v>2.830139</v>
-      </c>
-      <c r="I34">
-        <v>0.006379681861815685</v>
-      </c>
-      <c r="J34">
-        <v>0.008021150332118549</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>3.167042333333333</v>
-      </c>
-      <c r="N34">
-        <v>9.501127</v>
-      </c>
-      <c r="O34">
-        <v>0.01237175510436691</v>
-      </c>
-      <c r="P34">
-        <v>0.015213429278313</v>
-      </c>
-      <c r="Q34">
-        <v>2.987723340739222</v>
-      </c>
-      <c r="R34">
-        <v>26.889510066653</v>
-      </c>
-      <c r="S34">
-        <v>7.892786163815518E-05</v>
-      </c>
-      <c r="T34">
-        <v>0.0001220292033084024</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.9433796666666666</v>
-      </c>
-      <c r="H35">
-        <v>2.830139</v>
-      </c>
-      <c r="I35">
-        <v>0.006379681861815685</v>
-      </c>
-      <c r="J35">
-        <v>0.008021150332118549</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.427696</v>
-      </c>
-      <c r="N35">
-        <v>0.855392</v>
-      </c>
-      <c r="O35">
-        <v>0.001670754481373834</v>
-      </c>
-      <c r="P35">
-        <v>0.001369673902604892</v>
-      </c>
-      <c r="Q35">
-        <v>0.4034797099146666</v>
-      </c>
-      <c r="R35">
-        <v>2.420878259488</v>
-      </c>
-      <c r="S35">
-        <v>1.065888206036792E-05</v>
-      </c>
-      <c r="T35">
-        <v>1.098636027877334E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.9433796666666666</v>
-      </c>
-      <c r="H36">
-        <v>2.830139</v>
-      </c>
-      <c r="I36">
-        <v>0.006379681861815685</v>
-      </c>
-      <c r="J36">
-        <v>0.008021150332118549</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>104.2068533333333</v>
-      </c>
-      <c r="N36">
-        <v>312.62056</v>
-      </c>
-      <c r="O36">
-        <v>0.4070743406450668</v>
-      </c>
-      <c r="P36">
-        <v>0.5005754349464654</v>
-      </c>
-      <c r="Q36">
-        <v>98.30662656198223</v>
-      </c>
-      <c r="R36">
-        <v>884.75963905784</v>
-      </c>
-      <c r="S36">
-        <v>0.002597004787423912</v>
-      </c>
-      <c r="T36">
-        <v>0.004015190816271228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.9433796666666666</v>
-      </c>
-      <c r="H37">
-        <v>2.830139</v>
-      </c>
-      <c r="I37">
-        <v>0.006379681861815685</v>
-      </c>
-      <c r="J37">
-        <v>0.008021150332118549</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>5.130574666666667</v>
-      </c>
-      <c r="N37">
-        <v>15.391724</v>
-      </c>
-      <c r="O37">
-        <v>0.0200421107898049</v>
-      </c>
-      <c r="P37">
-        <v>0.02464559252237265</v>
-      </c>
-      <c r="Q37">
-        <v>4.840079818848444</v>
-      </c>
-      <c r="R37">
-        <v>43.560718369636</v>
-      </c>
-      <c r="S37">
-        <v>0.0001278622906782188</v>
-      </c>
-      <c r="T37">
-        <v>0.0001976860026460878</v>
+        <v>9.029330369615878E-06</v>
       </c>
     </row>
   </sheetData>
